--- a/data/clean_data/JD/2019-05-01bubble_data_JD.xlsx
+++ b/data/clean_data/JD/2019-05-01bubble_data_JD.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="平台" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="自营" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="医药保健" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="酒类" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="大家电" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="小家电" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="食品饮料及生鲜" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="平台" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="自营" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="医药保健" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="酒类" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="大家电" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="小家电" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="食品饮料及生鲜" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
